--- a/jpcore-r4/feature/swg5-immunizationへのJPCore参照等/ValueSet-jp-medication-code-yj-vs.xlsx
+++ b/jpcore-r4/feature/swg5-immunizationへのJPCore参照等/ValueSet-jp-medication-code-yj-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-08T21:59:02+00:00</t>
+    <t>2022-09-09T21:01:47+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
